--- a/biology/Médecine/Clinique_de_la_Baie_des_Citrons/Clinique_de_la_Baie_des_Citrons.xlsx
+++ b/biology/Médecine/Clinique_de_la_Baie_des_Citrons/Clinique_de_la_Baie_des_Citrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La clinique de la Baie des Citrons était un établissement hospitalier privé de Nouméa en Nouvelle-Calédonie. Elle tirait son nom du fait qu'elle se trouvait aux abords de la Baie des Citrons, au sud-ouest de la presqu'île nouméenne. Elle a été fondée en 1987 dans les bâtiments d'un ancien hôtel par un groupement de médecins et disposait d'une capacité de 62 lits fin 2004[1] puis de 53 en 2010[2]. 
-En 2011, un projet de regroupement avec la clinique Magnin et la polyclinique de l'Anse-Vata est entériné par le gouvernement de la Nouvelle-Calédonie[3]. Les locaux de cette nouvelle clinique sont construits sur la presqu’île de Nouville et l'établissement hospitalier, baptisé clinique Kuindo-Magnin, ouvre ses portes le 25 septembre 2018[4]. Le 27 septembre de cette même année, le bloc opératoire de la clinique de la Baie des Citrons ferme définitivement ses portes[5].
-↑ [PDF][1].
-↑ [PDF] [2].
+La clinique de la Baie des Citrons était un établissement hospitalier privé de Nouméa en Nouvelle-Calédonie. Elle tirait son nom du fait qu'elle se trouvait aux abords de la Baie des Citrons, au sud-ouest de la presqu'île nouméenne. Elle a été fondée en 1987 dans les bâtiments d'un ancien hôtel par un groupement de médecins et disposait d'une capacité de 62 lits fin 2004 puis de 53 en 2010. 
+En 2011, un projet de regroupement avec la clinique Magnin et la polyclinique de l'Anse-Vata est entériné par le gouvernement de la Nouvelle-Calédonie. Les locaux de cette nouvelle clinique sont construits sur la presqu’île de Nouville et l'établissement hospitalier, baptisé clinique Kuindo-Magnin, ouvre ses portes le 25 septembre 2018. Le 27 septembre de cette même année, le bloc opératoire de la clinique de la Baie des Citrons ferme définitivement ses portes.
+↑ [PDF].
+↑ [PDF] .
 ↑ « Les cliniques regroupées à Nouville en 2015 », sur Gouvernement de la Nouvelle-Calédonie, 1er février 2016 (consulté le 14 février 2021)
 ↑ « La clinique prête à déménager », sur DNC.NC, 6 septembre 2018 (consulté le 14 février 2021)
 ↑ « La clinique Kuindo-Magnin a accueilli ses premiers patients », sur Nouvelle-Calédonie la 1ère (consulté le 14 février 2021)
